--- a/Word.xlsx
+++ b/Word.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Projects\WordleGame\WordleGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A03DF17-7B50-4EF3-B2E6-7BC59BA1654C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648848AF-C19F-433D-AB47-7918CF3CE1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2542044-9D55-490A-BEE7-BEEFCF4F77D6}"/>
   </bookViews>
@@ -39,175 +39,175 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
-    <t>abort</t>
-  </si>
-  <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>arial</t>
-  </si>
-  <si>
-    <t>ascii</t>
-  </si>
-  <si>
-    <t>basic</t>
-  </si>
-  <si>
-    <t>block</t>
-  </si>
-  <si>
-    <t>board</t>
-  </si>
-  <si>
-    <t>cache</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>cobol</t>
-  </si>
-  <si>
-    <t>coral</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>debug</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>eprom</t>
-  </si>
-  <si>
-    <t>erase</t>
-  </si>
-  <si>
-    <t>excel</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>flash</t>
-  </si>
-  <si>
-    <t>forth</t>
-  </si>
-  <si>
-    <t>forum</t>
-  </si>
-  <si>
-    <t>frame</t>
-  </si>
-  <si>
-    <t>gates</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>intel</t>
-  </si>
-  <si>
-    <t>laser</t>
-  </si>
-  <si>
-    <t>layer</t>
-  </si>
-  <si>
-    <t>logic</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>logon</t>
-  </si>
-  <si>
-    <t>macro</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>micro</t>
-  </si>
-  <si>
-    <t>modem</t>
-  </si>
-  <si>
-    <t>morph</t>
-  </si>
-  <si>
-    <t>mouse</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>panel</t>
-  </si>
-  <si>
-    <t>patch</t>
-  </si>
-  <si>
-    <t>pixel</t>
-  </si>
-  <si>
-    <t>proxy</t>
-  </si>
-  <si>
-    <t>purge</t>
-  </si>
-  <si>
-    <t>query</t>
-  </si>
-  <si>
-    <t>queue</t>
-  </si>
-  <si>
-    <t>reset</t>
-  </si>
-  <si>
-    <t>robot</t>
-  </si>
-  <si>
-    <t>spool</t>
-  </si>
-  <si>
-    <t>stack</t>
-  </si>
-  <si>
-    <t>stats</t>
-  </si>
-  <si>
-    <t>suite</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>track</t>
-  </si>
-  <si>
-    <t>tweet</t>
-  </si>
-  <si>
-    <t>virus</t>
-  </si>
-  <si>
-    <t>write</t>
+    <t>ABORT</t>
+  </si>
+  <si>
+    <t>APPLE</t>
+  </si>
+  <si>
+    <t>ARIAL</t>
+  </si>
+  <si>
+    <t>ASCII</t>
+  </si>
+  <si>
+    <t>BASIC</t>
+  </si>
+  <si>
+    <t>BLOCK</t>
+  </si>
+  <si>
+    <t>BOARD</t>
+  </si>
+  <si>
+    <t>CACHE</t>
+  </si>
+  <si>
+    <t>CLICK</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>COBOL</t>
+  </si>
+  <si>
+    <t>CORAL</t>
+  </si>
+  <si>
+    <t>CRASH</t>
+  </si>
+  <si>
+    <t>DEBUG</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>EPROM</t>
+  </si>
+  <si>
+    <t>ERASE</t>
+  </si>
+  <si>
+    <t>EXCEL</t>
+  </si>
+  <si>
+    <t>FIELD</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>FORTH</t>
+  </si>
+  <si>
+    <t>FORUM</t>
+  </si>
+  <si>
+    <t>FRAME</t>
+  </si>
+  <si>
+    <t>GATES</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>INTEL</t>
+  </si>
+  <si>
+    <t>LASER</t>
+  </si>
+  <si>
+    <t>LAYER</t>
+  </si>
+  <si>
+    <t>LOGIC</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>LOGON</t>
+  </si>
+  <si>
+    <t>MACRO</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>MICRO</t>
+  </si>
+  <si>
+    <t>MODEM</t>
+  </si>
+  <si>
+    <t>MORPH</t>
+  </si>
+  <si>
+    <t>MOUSE</t>
+  </si>
+  <si>
+    <t>PAINT</t>
+  </si>
+  <si>
+    <t>PANEL</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>PIXEL</t>
+  </si>
+  <si>
+    <t>PROXY</t>
+  </si>
+  <si>
+    <t>PURGE</t>
+  </si>
+  <si>
+    <t>QUERY</t>
+  </si>
+  <si>
+    <t>QUEUE</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>ROBOT</t>
+  </si>
+  <si>
+    <t>SPOOL</t>
+  </si>
+  <si>
+    <t>STACK</t>
+  </si>
+  <si>
+    <t>STATS</t>
+  </si>
+  <si>
+    <t>SUITE</t>
+  </si>
+  <si>
+    <t>TABLE</t>
+  </si>
+  <si>
+    <t>TRACK</t>
+  </si>
+  <si>
+    <t>TWEET</t>
+  </si>
+  <si>
+    <t>VIRUS</t>
+  </si>
+  <si>
+    <t>WRITE</t>
   </si>
 </sst>
 </file>
@@ -223,7 +223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -578,7 +577,7 @@
   <dimension ref="A1:A57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
